--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Icam4</t>
+  </si>
+  <si>
+    <t>Itgb2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam4</t>
-  </si>
-  <si>
-    <t>Itgb2</t>
   </si>
 </sst>
 </file>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H2">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I2">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J2">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="N2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="O2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q2">
-        <v>0.388545374808</v>
+        <v>0.27681936322125</v>
       </c>
       <c r="R2">
-        <v>1.554181499232</v>
+        <v>1.107277452885</v>
       </c>
       <c r="S2">
-        <v>0.0005356070691389396</v>
+        <v>5.708137261420008E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002703556874195589</v>
+        <v>2.624481573577946E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H3">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I3">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J3">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P3">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q3">
-        <v>0.01422767579766667</v>
+        <v>0.01400939097166667</v>
       </c>
       <c r="R3">
-        <v>0.08536605478599998</v>
+        <v>0.08405634583</v>
       </c>
       <c r="S3">
-        <v>1.96127511192558E-05</v>
+        <v>2.888798156480726E-06</v>
       </c>
       <c r="T3">
-        <v>1.484974466326447E-05</v>
+        <v>1.992313039503768E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H4">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I4">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J4">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N4">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="O4">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P4">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q4">
-        <v>130.7210618557262</v>
+        <v>165.6036986079083</v>
       </c>
       <c r="R4">
-        <v>784.326371134357</v>
+        <v>993.62219164745</v>
       </c>
       <c r="S4">
-        <v>0.1801980652835555</v>
+        <v>0.03414821245352122</v>
       </c>
       <c r="T4">
-        <v>0.1364365071480393</v>
+        <v>0.02355094584724379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H5">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I5">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J5">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N5">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="O5">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P5">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q5">
-        <v>0.4322386224126666</v>
+        <v>0.631029752235</v>
       </c>
       <c r="R5">
-        <v>2.593431734476</v>
+        <v>2.52411900894</v>
       </c>
       <c r="S5">
-        <v>0.0005958379039603856</v>
+        <v>0.0001301211158020875</v>
       </c>
       <c r="T5">
-        <v>0.0004511371546350484</v>
+        <v>5.982695494449726E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H6">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I6">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J6">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N6">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="O6">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P6">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q6">
-        <v>105.5297649722187</v>
+        <v>196.8146952380308</v>
       </c>
       <c r="R6">
-        <v>633.178589833312</v>
+        <v>1180.888171428185</v>
       </c>
       <c r="S6">
-        <v>0.145472039531089</v>
+        <v>0.04058405750270094</v>
       </c>
       <c r="T6">
-        <v>0.1101437850072996</v>
+        <v>0.02798954533296459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.178239</v>
+        <v>1.0325825</v>
       </c>
       <c r="H7">
-        <v>0.534717</v>
+        <v>2.065165</v>
       </c>
       <c r="I7">
-        <v>0.05554864148569349</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J7">
-        <v>0.06305330552960026</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.370512</v>
+        <v>109.381785</v>
       </c>
       <c r="N7">
-        <v>0.741024</v>
+        <v>328.145355</v>
       </c>
       <c r="O7">
-        <v>0.001638838393995521</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P7">
-        <v>0.00109315609805839</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q7">
-        <v>0.066039688368</v>
+        <v>112.9457170097625</v>
       </c>
       <c r="R7">
-        <v>0.396238130208</v>
+        <v>677.674302058575</v>
       </c>
       <c r="S7">
-        <v>9.10352464010469E-05</v>
+        <v>0.02328990458900578</v>
       </c>
       <c r="T7">
-        <v>6.892710544242134E-05</v>
+        <v>0.01606231314478632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.534717</v>
       </c>
       <c r="I8">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J8">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01356733333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N8">
-        <v>0.040702</v>
+        <v>0.536169</v>
       </c>
       <c r="O8">
-        <v>6.001065220776088E-05</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P8">
-        <v>6.004345271296557E-05</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q8">
-        <v>0.002418227926</v>
+        <v>0.0477831131955</v>
       </c>
       <c r="R8">
-        <v>0.021764051334</v>
+        <v>0.286698679173</v>
       </c>
       <c r="S8">
-        <v>3.33351020481155E-06</v>
+        <v>9.853088516784286E-06</v>
       </c>
       <c r="T8">
-        <v>3.785938168962723E-06</v>
+        <v>6.795364600789181E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>0.534717</v>
       </c>
       <c r="I9">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J9">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>124.6539663333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N9">
-        <v>373.961899</v>
+        <v>0.040702</v>
       </c>
       <c r="O9">
-        <v>0.5513659638308389</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P9">
-        <v>0.5516673283636506</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q9">
-        <v>22.218198305287</v>
+        <v>0.002418227926</v>
       </c>
       <c r="R9">
-        <v>199.963784747583</v>
+        <v>0.021764051334</v>
       </c>
       <c r="S9">
-        <v>0.03062763025225311</v>
+        <v>4.986492552536656E-07</v>
       </c>
       <c r="T9">
-        <v>0.03478444860601157</v>
+        <v>5.158540124127304E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>0.534717</v>
       </c>
       <c r="I10">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J10">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4121773333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N10">
-        <v>1.236532</v>
+        <v>481.13453</v>
       </c>
       <c r="O10">
-        <v>0.001823131339879293</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P10">
-        <v>0.001824127823450168</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q10">
-        <v>0.073466075716</v>
+        <v>28.58564583089001</v>
       </c>
       <c r="R10">
-        <v>0.661194681444</v>
+        <v>257.27081247801</v>
       </c>
       <c r="S10">
-        <v>0.0001012724691802869</v>
+        <v>0.005894486144693688</v>
       </c>
       <c r="T10">
-        <v>0.0001150172889770482</v>
+        <v>0.006097861967736555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,54 +1107,54 @@
         <v>0.534717</v>
       </c>
       <c r="I11">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J11">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>100.6318613333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N11">
-        <v>301.895584</v>
+        <v>1.222236</v>
       </c>
       <c r="O11">
-        <v>0.4451120557830785</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P11">
-        <v>0.4453553442621278</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q11">
-        <v>17.936522332192</v>
+        <v>0.108925061202</v>
       </c>
       <c r="R11">
-        <v>161.428700989728</v>
+        <v>0.6535503672120001</v>
       </c>
       <c r="S11">
-        <v>0.02472537000765423</v>
+        <v>2.246082764277748E-05</v>
       </c>
       <c r="T11">
-        <v>0.02808112659100025</v>
+        <v>1.549052490578561E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,60 +1163,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3011133333333333</v>
+        <v>0.178239</v>
       </c>
       <c r="H12">
-        <v>0.90334</v>
+        <v>0.534717</v>
       </c>
       <c r="I12">
-        <v>0.09384274260905555</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J12">
-        <v>0.1065209690679539</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.370512</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N12">
-        <v>0.741024</v>
+        <v>571.812989</v>
       </c>
       <c r="O12">
-        <v>0.001638838393995521</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P12">
-        <v>0.00109315609805839</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q12">
-        <v>0.11156610336</v>
+        <v>33.973125115457</v>
       </c>
       <c r="R12">
-        <v>0.66939662016</v>
+        <v>305.758126039113</v>
       </c>
       <c r="S12">
-        <v>0.0001537930895855597</v>
+        <v>0.007005408115306926</v>
       </c>
       <c r="T12">
-        <v>0.000116444046907723</v>
+        <v>0.007247113771445297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3011133333333333</v>
+        <v>0.178239</v>
       </c>
       <c r="H13">
-        <v>0.90334</v>
+        <v>0.534717</v>
       </c>
       <c r="I13">
-        <v>0.09384274260905555</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J13">
-        <v>0.1065209690679539</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01356733333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N13">
-        <v>0.040702</v>
+        <v>328.145355</v>
       </c>
       <c r="O13">
-        <v>6.001065220776088E-05</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P13">
-        <v>6.004345271296557E-05</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q13">
-        <v>0.004085304964444444</v>
+        <v>19.496099976615</v>
       </c>
       <c r="R13">
-        <v>0.03676774468</v>
+        <v>175.464899789535</v>
       </c>
       <c r="S13">
-        <v>5.631564188934455E-06</v>
+        <v>0.004020181732733028</v>
       </c>
       <c r="T13">
-        <v>6.395886769170957E-06</v>
+        <v>0.004158888949716226</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H14">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I14">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J14">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.6539663333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N14">
-        <v>373.961899</v>
+        <v>0.536169</v>
       </c>
       <c r="O14">
-        <v>0.5513659638308389</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P14">
-        <v>0.5516673283636506</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q14">
-        <v>37.53497131585112</v>
+        <v>0.2059354533415</v>
       </c>
       <c r="R14">
-        <v>337.8147418426601</v>
+        <v>1.235612720049</v>
       </c>
       <c r="S14">
-        <v>0.05174169422717124</v>
+        <v>4.2464798017995E-05</v>
       </c>
       <c r="T14">
-        <v>0.0587641384204252</v>
+        <v>2.928663278926101E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H15">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I15">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J15">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.4121773333333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N15">
-        <v>1.236532</v>
+        <v>0.040702</v>
       </c>
       <c r="O15">
-        <v>0.001823131339879293</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P15">
-        <v>0.001824127823450168</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q15">
-        <v>0.1241120907644444</v>
+        <v>0.01042206819355556</v>
       </c>
       <c r="R15">
-        <v>1.11700881688</v>
+        <v>0.09379861374199999</v>
       </c>
       <c r="S15">
-        <v>0.0001710876450707951</v>
+        <v>2.149076390626131E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001943078634577294</v>
+        <v>2.223225378170879E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H16">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I16">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J16">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,184 +1429,184 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>100.6318613333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N16">
-        <v>301.895584</v>
+        <v>481.13453</v>
       </c>
       <c r="O16">
-        <v>0.4451120557830785</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P16">
-        <v>0.4453553442621278</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q16">
-        <v>30.30159520561778</v>
+        <v>123.1982920233478</v>
       </c>
       <c r="R16">
-        <v>272.71435685056</v>
+        <v>1108.78462821013</v>
       </c>
       <c r="S16">
-        <v>0.04177053608303901</v>
+        <v>0.02540403073898088</v>
       </c>
       <c r="T16">
-        <v>0.04743968285039407</v>
+        <v>0.0262805389762252</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7681736666666666</v>
+      </c>
+      <c r="H17">
+        <v>2.304521</v>
+      </c>
+      <c r="I17">
+        <v>0.07306348534442113</v>
+      </c>
+      <c r="J17">
+        <v>0.07553635073038674</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>0.5</v>
       </c>
-      <c r="G17">
-        <v>0.0970365</v>
-      </c>
-      <c r="H17">
-        <v>0.194073</v>
-      </c>
-      <c r="I17">
-        <v>0.03024167409784893</v>
-      </c>
-      <c r="J17">
-        <v>0.02288489829956054</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>0.370512</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N17">
-        <v>0.741024</v>
+        <v>1.222236</v>
       </c>
       <c r="O17">
-        <v>0.001638838393995521</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P17">
-        <v>0.00109315609805839</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q17">
-        <v>0.035953187688</v>
+        <v>0.469444754826</v>
       </c>
       <c r="R17">
-        <v>0.143812750752</v>
+        <v>2.816668528956</v>
       </c>
       <c r="S17">
-        <v>4.956121661025469E-05</v>
+        <v>9.680157724583506E-05</v>
       </c>
       <c r="T17">
-        <v>2.501676612961069E-05</v>
+        <v>6.676099683833871E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0970365</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H18">
-        <v>0.194073</v>
+        <v>2.304521</v>
       </c>
       <c r="I18">
-        <v>0.03024167409784893</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J18">
-        <v>0.02288489829956054</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01356733333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N18">
-        <v>0.040702</v>
+        <v>571.812989</v>
       </c>
       <c r="O18">
-        <v>6.001065220776088E-05</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P18">
-        <v>6.004345271296557E-05</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q18">
-        <v>0.001316526541</v>
+        <v>146.4172268025854</v>
       </c>
       <c r="R18">
-        <v>0.007899159245999999</v>
+        <v>1317.755041223269</v>
       </c>
       <c r="S18">
-        <v>1.814822586466463E-06</v>
+        <v>0.03019187741421206</v>
       </c>
       <c r="T18">
-        <v>1.374088308890689E-06</v>
+        <v>0.03123357939935496</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0970365</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H19">
-        <v>0.194073</v>
+        <v>2.304521</v>
       </c>
       <c r="I19">
-        <v>0.03024167409784893</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J19">
-        <v>0.02288489829956054</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.6539663333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N19">
-        <v>373.961899</v>
+        <v>328.145355</v>
       </c>
       <c r="O19">
-        <v>0.5513659638308389</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P19">
-        <v>0.5516673283636506</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q19">
-        <v>12.0959846041045</v>
+        <v>84.024206849995</v>
       </c>
       <c r="R19">
-        <v>72.57590762462701</v>
+        <v>756.2178616499549</v>
       </c>
       <c r="S19">
-        <v>0.01667422978681859</v>
+        <v>0.01732616173957374</v>
       </c>
       <c r="T19">
-        <v>0.01262485070479241</v>
+        <v>0.0179239614998008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H20">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I20">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J20">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4121773333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N20">
-        <v>1.236532</v>
+        <v>0.536169</v>
       </c>
       <c r="O20">
-        <v>0.001823131339879293</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P20">
-        <v>0.001824127823450168</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q20">
-        <v>0.039996245806</v>
+        <v>2.1766710808215</v>
       </c>
       <c r="R20">
-        <v>0.239977474836</v>
+        <v>13.060026484929</v>
       </c>
       <c r="S20">
-        <v>5.513454381820423E-05</v>
+        <v>0.0004488391692586186</v>
       </c>
       <c r="T20">
-        <v>4.174497972505582E-05</v>
+        <v>0.0003095502285432696</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,75 +1706,75 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H21">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I21">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J21">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>100.6318613333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N21">
-        <v>301.895584</v>
+        <v>0.040702</v>
       </c>
       <c r="O21">
-        <v>0.4451120557830785</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P21">
-        <v>0.4453553442621278</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q21">
-        <v>9.764963612272</v>
+        <v>0.110157887198</v>
       </c>
       <c r="R21">
-        <v>58.589781673632</v>
+        <v>0.991420984782</v>
       </c>
       <c r="S21">
-        <v>0.01346093372801541</v>
+        <v>2.27150417961057E-05</v>
       </c>
       <c r="T21">
-        <v>0.01019191176060457</v>
+        <v>2.349877259253735E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,61 +1783,61 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6042083333333333</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H22">
-        <v>1.812625</v>
+        <v>24.358041</v>
       </c>
       <c r="I22">
-        <v>0.1883030767172264</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J22">
-        <v>0.2137429667199504</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.370512</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N22">
-        <v>0.741024</v>
+        <v>481.13453</v>
       </c>
       <c r="O22">
-        <v>0.001638838393995521</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P22">
-        <v>0.00109315609805839</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q22">
-        <v>0.223866438</v>
+        <v>1302.16606758397</v>
       </c>
       <c r="R22">
-        <v>1.343198628</v>
+        <v>11719.49460825573</v>
       </c>
       <c r="S22">
-        <v>0.0003085983118316747</v>
+        <v>0.2685123816642836</v>
       </c>
       <c r="T22">
-        <v>0.0002336544274870053</v>
+        <v>0.277776790007551</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
       <c r="E23">
         <v>3</v>
       </c>
@@ -1845,60 +1845,60 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6042083333333333</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H23">
-        <v>1.812625</v>
+        <v>24.358041</v>
       </c>
       <c r="I23">
-        <v>0.1883030767172264</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J23">
-        <v>0.2137429667199504</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01356733333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N23">
-        <v>0.040702</v>
+        <v>1.222236</v>
       </c>
       <c r="O23">
-        <v>6.001065220776088E-05</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P23">
-        <v>6.004345271296557E-05</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q23">
-        <v>0.00819749586111111</v>
+        <v>4.961879099946</v>
       </c>
       <c r="R23">
-        <v>0.07377746274999999</v>
+        <v>29.771274599676</v>
       </c>
       <c r="S23">
-        <v>1.130019044652879E-05</v>
+        <v>0.001023161336962743</v>
       </c>
       <c r="T23">
-        <v>1.283386571497831E-05</v>
+        <v>0.0007056421261464422</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6042083333333333</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H24">
-        <v>1.812625</v>
+        <v>24.358041</v>
       </c>
       <c r="I24">
-        <v>0.1883030767172264</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J24">
-        <v>0.2137429667199504</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,39 +1925,39 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.6539663333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N24">
-        <v>373.961899</v>
+        <v>571.812989</v>
       </c>
       <c r="O24">
-        <v>0.5513659638308389</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P24">
-        <v>0.5516673283636506</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q24">
-        <v>75.31696524165278</v>
+        <v>1547.582692266061</v>
       </c>
       <c r="R24">
-        <v>677.8526871748751</v>
+        <v>13928.24423039455</v>
       </c>
       <c r="S24">
-        <v>0.1038239073865059</v>
+        <v>0.3191183712026713</v>
       </c>
       <c r="T24">
-        <v>0.1179150114069157</v>
+        <v>0.3301288239882577</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6042083333333333</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H25">
-        <v>1.812625</v>
+        <v>24.358041</v>
       </c>
       <c r="I25">
-        <v>0.1883030767172264</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J25">
-        <v>0.2137429667199504</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4121773333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N25">
-        <v>1.236532</v>
+        <v>328.145355</v>
       </c>
       <c r="O25">
-        <v>0.001823131339879293</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P25">
-        <v>0.001824127823450168</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q25">
-        <v>0.2490409796111111</v>
+        <v>888.1086678943949</v>
       </c>
       <c r="R25">
-        <v>2.2413688165</v>
+        <v>7992.978011049555</v>
       </c>
       <c r="S25">
-        <v>0.0003433012405588703</v>
+        <v>0.1831319211346602</v>
       </c>
       <c r="T25">
-        <v>0.0003898944926606448</v>
+        <v>0.1894504710933723</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,60 +2031,60 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H26">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I26">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J26">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>100.6318613333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N26">
-        <v>301.895584</v>
+        <v>0.536169</v>
       </c>
       <c r="O26">
-        <v>0.4451120557830785</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P26">
-        <v>0.4453553442621278</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q26">
-        <v>60.80260921644444</v>
+        <v>0.111373382126</v>
       </c>
       <c r="R26">
-        <v>547.223482948</v>
+        <v>0.6682402927560001</v>
       </c>
       <c r="S26">
-        <v>0.08381596958788338</v>
+        <v>2.296568220683587E-05</v>
       </c>
       <c r="T26">
-        <v>0.095191572527172</v>
+        <v>1.583870718663138E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,60 +2093,60 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.9794326666666667</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H27">
-        <v>2.938298</v>
+        <v>1.246324</v>
       </c>
       <c r="I27">
-        <v>0.3052427025513126</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J27">
-        <v>0.3464812256408781</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.370512</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N27">
-        <v>0.741024</v>
+        <v>0.040702</v>
       </c>
       <c r="O27">
-        <v>0.001638838393995521</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P27">
-        <v>0.00109315609805839</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q27">
-        <v>0.362891556192</v>
+        <v>0.005636431049777778</v>
       </c>
       <c r="R27">
-        <v>2.177349337152</v>
+        <v>0.050727879448</v>
       </c>
       <c r="S27">
-        <v>0.0005002434604280457</v>
+        <v>1.162256921707688E-06</v>
       </c>
       <c r="T27">
-        <v>0.000378758064672071</v>
+        <v>1.202357950404202E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,61 +2155,61 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.9794326666666667</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H28">
-        <v>2.938298</v>
+        <v>1.246324</v>
       </c>
       <c r="I28">
-        <v>0.3052427025513126</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J28">
-        <v>0.3464812256408781</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01356733333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N28">
-        <v>0.040702</v>
+        <v>481.13453</v>
       </c>
       <c r="O28">
-        <v>6.001065220776088E-05</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P28">
-        <v>6.004345271296557E-05</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q28">
-        <v>0.01328828946622222</v>
+        <v>66.6277235519689</v>
       </c>
       <c r="R28">
-        <v>0.119594605196</v>
+        <v>599.6495119677201</v>
       </c>
       <c r="S28">
-        <v>1.831781366176382E-05</v>
+        <v>0.01373893021878716</v>
       </c>
       <c r="T28">
-        <v>2.080392908769842E-05</v>
+        <v>0.01421296072329343</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,60 +2217,60 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.9794326666666667</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H29">
-        <v>2.938298</v>
+        <v>1.246324</v>
       </c>
       <c r="I29">
-        <v>0.3052427025513126</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J29">
-        <v>0.3464812256408781</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N29">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="O29">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P29">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q29">
-        <v>122.0901666564336</v>
+        <v>0.253883676744</v>
       </c>
       <c r="R29">
-        <v>1098.811499907902</v>
+        <v>1.523302060464</v>
       </c>
       <c r="S29">
-        <v>0.1683004368945345</v>
+        <v>5.235193298708849E-05</v>
       </c>
       <c r="T29">
-        <v>0.1911423720774664</v>
+        <v>3.610547815513318E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,60 +2279,60 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.9794326666666667</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H30">
-        <v>2.938298</v>
+        <v>1.246324</v>
       </c>
       <c r="I30">
-        <v>0.3052427025513126</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J30">
-        <v>0.3464812256408781</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4121773333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N30">
-        <v>1.236532</v>
+        <v>571.812989</v>
       </c>
       <c r="O30">
-        <v>0.001823131339879293</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P30">
-        <v>0.001824127823450168</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q30">
-        <v>0.4036999447262223</v>
+        <v>79.18491685582623</v>
       </c>
       <c r="R30">
-        <v>3.633299502536</v>
+        <v>712.664251702436</v>
       </c>
       <c r="S30">
-        <v>0.000556497537290751</v>
+        <v>0.0163282788164614</v>
       </c>
       <c r="T30">
-        <v>0.0006320260439946415</v>
+        <v>0.01689164889854407</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.9794326666666667</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H31">
-        <v>2.938298</v>
+        <v>1.246324</v>
       </c>
       <c r="I31">
-        <v>0.3052427025513126</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J31">
-        <v>0.3464812256408781</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N31">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="O31">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P31">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q31">
-        <v>98.5621322973369</v>
+        <v>45.44171460278</v>
       </c>
       <c r="R31">
-        <v>887.059190676032</v>
+        <v>408.97543142502</v>
       </c>
       <c r="S31">
-        <v>0.1358672068453975</v>
+        <v>0.0093702818086329</v>
       </c>
       <c r="T31">
-        <v>0.1543072655256572</v>
+        <v>0.009693582046888588</v>
       </c>
     </row>
   </sheetData>
